--- a/Line_1234.xlsx
+++ b/Line_1234.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -456,7 +456,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
